--- a/data/pca/factorExposure/factorExposure_2015-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02037420417234875</v>
+        <v>0.011131012217971</v>
       </c>
       <c r="C2">
-        <v>-0.01908349234951655</v>
+        <v>0.05336452638756751</v>
       </c>
       <c r="D2">
-        <v>0.1071439064829529</v>
+        <v>0.1289446174394924</v>
       </c>
       <c r="E2">
-        <v>0.01275162367390934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02447393520742856</v>
+      </c>
+      <c r="F2">
+        <v>0.03037448662044751</v>
+      </c>
+      <c r="G2">
+        <v>0.1136168248283653</v>
+      </c>
+      <c r="H2">
+        <v>0.07949023173013099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>9.148740077342797e-06</v>
+        <v>-7.678379112310487e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0001562750404978341</v>
+        <v>-0.0001600122379662948</v>
       </c>
       <c r="D3">
-        <v>-0.00207319388655961</v>
+        <v>0.0004576410755411389</v>
       </c>
       <c r="E3">
-        <v>-0.001852564194496683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.003096352046173589</v>
+      </c>
+      <c r="F3">
+        <v>-0.002536930500752689</v>
+      </c>
+      <c r="G3">
+        <v>0.003676810822042778</v>
+      </c>
+      <c r="H3">
+        <v>-0.0090994529104917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04500341739533007</v>
+        <v>0.01939639828741224</v>
       </c>
       <c r="C4">
-        <v>-0.07196601763244424</v>
+        <v>0.1063680944456329</v>
       </c>
       <c r="D4">
-        <v>0.1264074185555547</v>
+        <v>0.1304107062292362</v>
       </c>
       <c r="E4">
-        <v>0.08599488120508016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01003997196195882</v>
+      </c>
+      <c r="F4">
+        <v>0.09028830257153549</v>
+      </c>
+      <c r="G4">
+        <v>0.006829542134650879</v>
+      </c>
+      <c r="H4">
+        <v>0.04313945098722501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02112425757092662</v>
+        <v>0.02705627221400862</v>
       </c>
       <c r="C6">
-        <v>-0.01263309165114744</v>
+        <v>0.03494516273087309</v>
       </c>
       <c r="D6">
-        <v>0.1369963851767773</v>
+        <v>0.1211587542874383</v>
       </c>
       <c r="E6">
-        <v>0.03953150437702763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0597832432822714</v>
+      </c>
+      <c r="F6">
+        <v>0.04710652076100616</v>
+      </c>
+      <c r="G6">
+        <v>0.0004082567649498504</v>
+      </c>
+      <c r="H6">
+        <v>0.0457721030410711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002245423116097409</v>
+        <v>0.008708377979980038</v>
       </c>
       <c r="C7">
-        <v>-0.02404643481433169</v>
+        <v>0.03804320526686153</v>
       </c>
       <c r="D7">
-        <v>0.1101765356341774</v>
+        <v>0.09779506306232984</v>
       </c>
       <c r="E7">
-        <v>0.005450124106725229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05391406666564263</v>
+      </c>
+      <c r="F7">
+        <v>0.01166724209599154</v>
+      </c>
+      <c r="G7">
+        <v>-0.009029653724224975</v>
+      </c>
+      <c r="H7">
+        <v>0.08023684259983704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004829361016799291</v>
+        <v>-0.0080670371827616</v>
       </c>
       <c r="C8">
-        <v>-0.02619854862195256</v>
+        <v>0.0351086051282571</v>
       </c>
       <c r="D8">
-        <v>0.07851416688345984</v>
+        <v>0.07472844722842265</v>
       </c>
       <c r="E8">
-        <v>0.02324066888995339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03950579688145631</v>
+      </c>
+      <c r="F8">
+        <v>0.04811233265185837</v>
+      </c>
+      <c r="G8">
+        <v>0.06133315446674355</v>
+      </c>
+      <c r="H8">
+        <v>0.01009504047447377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03613106495033308</v>
+        <v>0.01344411568541597</v>
       </c>
       <c r="C9">
-        <v>-0.06145555220286891</v>
+        <v>0.08838846906702667</v>
       </c>
       <c r="D9">
-        <v>0.129312341666014</v>
+        <v>0.114701750835474</v>
       </c>
       <c r="E9">
-        <v>0.06988488727178822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01220115799899884</v>
+      </c>
+      <c r="F9">
+        <v>0.06090562196603126</v>
+      </c>
+      <c r="G9">
+        <v>-0.01294117528072944</v>
+      </c>
+      <c r="H9">
+        <v>0.05727873340278009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.171273910778813</v>
+        <v>0.2406171377185684</v>
       </c>
       <c r="C10">
-        <v>0.1705726908276285</v>
+        <v>-0.09439188981321092</v>
       </c>
       <c r="D10">
-        <v>0.003683926569718034</v>
+        <v>-0.002145941860328759</v>
       </c>
       <c r="E10">
-        <v>0.04325794816332892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01035749277498232</v>
+      </c>
+      <c r="F10">
+        <v>0.04424355885399904</v>
+      </c>
+      <c r="G10">
+        <v>-0.0005517586037926576</v>
+      </c>
+      <c r="H10">
+        <v>-0.04247606502720763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01841104334399324</v>
+        <v>0.01017956717991209</v>
       </c>
       <c r="C11">
-        <v>-0.04117254284485347</v>
+        <v>0.05539683433119781</v>
       </c>
       <c r="D11">
-        <v>0.04580696877762432</v>
+        <v>0.04364750543008099</v>
       </c>
       <c r="E11">
-        <v>-0.01457496509327011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01973388722718889</v>
+      </c>
+      <c r="F11">
+        <v>-0.01149990765998629</v>
+      </c>
+      <c r="G11">
+        <v>-0.005796782220304226</v>
+      </c>
+      <c r="H11">
+        <v>0.04389363208315017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0190459193092065</v>
+        <v>0.0104066733829892</v>
       </c>
       <c r="C12">
-        <v>-0.04059770222788533</v>
+        <v>0.04944528595922178</v>
       </c>
       <c r="D12">
-        <v>0.05963227648863557</v>
+        <v>0.04720359852491103</v>
       </c>
       <c r="E12">
-        <v>-0.003548794775449543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01497730523527742</v>
+      </c>
+      <c r="F12">
+        <v>-0.01454613597400184</v>
+      </c>
+      <c r="G12">
+        <v>-0.02493985806121714</v>
+      </c>
+      <c r="H12">
+        <v>0.06444513511453305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00121184091425399</v>
+        <v>-0.003022864789728145</v>
       </c>
       <c r="C13">
-        <v>-0.02215956449893318</v>
+        <v>0.04738248862125419</v>
       </c>
       <c r="D13">
-        <v>0.1442629287802071</v>
+        <v>0.1530759461904991</v>
       </c>
       <c r="E13">
-        <v>0.04009631216868183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04083940873738374</v>
+      </c>
+      <c r="F13">
+        <v>0.03652411288089818</v>
+      </c>
+      <c r="G13">
+        <v>0.01234133781689784</v>
+      </c>
+      <c r="H13">
+        <v>0.07501254788270897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00588853037284532</v>
+        <v>0.001355394420645201</v>
       </c>
       <c r="C14">
-        <v>-0.01659170066354877</v>
+        <v>0.0308781508973857</v>
       </c>
       <c r="D14">
-        <v>0.09484269602831245</v>
+        <v>0.1024138283118282</v>
       </c>
       <c r="E14">
-        <v>0.01359948208262246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04992375203649639</v>
+      </c>
+      <c r="F14">
+        <v>0.03807618306115459</v>
+      </c>
+      <c r="G14">
+        <v>0.01264954921507918</v>
+      </c>
+      <c r="H14">
+        <v>0.1275836365238034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00294713967770807</v>
+        <v>-0.001450950950046687</v>
       </c>
       <c r="C15">
-        <v>-0.01074619378258977</v>
+        <v>0.02579682056648312</v>
       </c>
       <c r="D15">
-        <v>0.03145360027613737</v>
+        <v>0.06008977071003894</v>
       </c>
       <c r="E15">
-        <v>-0.003198987339824609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01117789364067353</v>
+      </c>
+      <c r="F15">
+        <v>0.007545903964577654</v>
+      </c>
+      <c r="G15">
+        <v>0.01810422892448642</v>
+      </c>
+      <c r="H15">
+        <v>0.03409508463181488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0183751882431837</v>
+        <v>0.01039975156173415</v>
       </c>
       <c r="C16">
-        <v>-0.03651513087956059</v>
+        <v>0.04905084149410331</v>
       </c>
       <c r="D16">
-        <v>0.05189107316863313</v>
+        <v>0.04393686001749023</v>
       </c>
       <c r="E16">
-        <v>-0.005783734948922453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02167293704860665</v>
+      </c>
+      <c r="F16">
+        <v>-0.006998070836744626</v>
+      </c>
+      <c r="G16">
+        <v>-0.01658239761398842</v>
+      </c>
+      <c r="H16">
+        <v>0.04585834298770659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003235044541404864</v>
+        <v>-0.0001217506060753018</v>
       </c>
       <c r="C19">
-        <v>-0.0180368870982044</v>
+        <v>0.01697754058168541</v>
       </c>
       <c r="D19">
-        <v>0.1032710041247257</v>
+        <v>0.06423429080864215</v>
       </c>
       <c r="E19">
-        <v>0.04669721329050315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01032569638049879</v>
+      </c>
+      <c r="F19">
+        <v>0.01566836755440654</v>
+      </c>
+      <c r="G19">
+        <v>0.01104860229533015</v>
+      </c>
+      <c r="H19">
+        <v>0.05795551184455372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001822874944765774</v>
+        <v>0.005158495652752288</v>
       </c>
       <c r="C20">
-        <v>-0.02471698953214977</v>
+        <v>0.04058522393583979</v>
       </c>
       <c r="D20">
-        <v>0.0848434346291833</v>
+        <v>0.09247560473806915</v>
       </c>
       <c r="E20">
-        <v>0.03416359651737459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02345224843101168</v>
+      </c>
+      <c r="F20">
+        <v>0.02950855424651329</v>
+      </c>
+      <c r="G20">
+        <v>-0.005788630329735945</v>
+      </c>
+      <c r="H20">
+        <v>0.05358047644341057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005367911654161013</v>
+        <v>0.005393115868721305</v>
       </c>
       <c r="C21">
-        <v>-0.0281872268672443</v>
+        <v>0.04531161862168039</v>
       </c>
       <c r="D21">
-        <v>0.1605666293342628</v>
+        <v>0.1313686428357752</v>
       </c>
       <c r="E21">
-        <v>0.08100831123683182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03019535097602031</v>
+      </c>
+      <c r="F21">
+        <v>0.09888754842636376</v>
+      </c>
+      <c r="G21">
+        <v>0.01924647744829582</v>
+      </c>
+      <c r="H21">
+        <v>0.1936006478771499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002200412287955531</v>
+        <v>-0.01318783937693754</v>
       </c>
       <c r="C22">
-        <v>-0.06325332203389152</v>
+        <v>0.08796372625671246</v>
       </c>
       <c r="D22">
-        <v>0.2501519793543551</v>
+        <v>0.2546232139878887</v>
       </c>
       <c r="E22">
-        <v>-0.01555123914407681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05976580210963357</v>
+      </c>
+      <c r="F22">
+        <v>0.001176691759055785</v>
+      </c>
+      <c r="G22">
+        <v>0.3847038734584756</v>
+      </c>
+      <c r="H22">
+        <v>-0.410463356995624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001931582927025246</v>
+        <v>-0.009933766898626033</v>
       </c>
       <c r="C23">
-        <v>-0.06375913055995704</v>
+        <v>0.08953957538758239</v>
       </c>
       <c r="D23">
-        <v>0.2496452222425921</v>
+        <v>0.257285038916888</v>
       </c>
       <c r="E23">
-        <v>-0.01543657878559263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05502877944733008</v>
+      </c>
+      <c r="F23">
+        <v>0.00451561862057153</v>
+      </c>
+      <c r="G23">
+        <v>0.3727270484109385</v>
+      </c>
+      <c r="H23">
+        <v>-0.394850340540362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02331687109551476</v>
+        <v>0.009542389246240554</v>
       </c>
       <c r="C24">
-        <v>-0.05578330755794187</v>
+        <v>0.06590084286970588</v>
       </c>
       <c r="D24">
-        <v>0.06325779567173349</v>
+        <v>0.04984252013957285</v>
       </c>
       <c r="E24">
-        <v>-0.0009308402958326793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02902968151880046</v>
+      </c>
+      <c r="F24">
+        <v>-0.002584678126485824</v>
+      </c>
+      <c r="G24">
+        <v>-0.007519552141528765</v>
+      </c>
+      <c r="H24">
+        <v>0.07009411154190229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02526119722948992</v>
+        <v>0.01428247669425635</v>
       </c>
       <c r="C25">
-        <v>-0.04753981181117987</v>
+        <v>0.06065456785055652</v>
       </c>
       <c r="D25">
-        <v>0.06017112037616855</v>
+        <v>0.05013752248714316</v>
       </c>
       <c r="E25">
-        <v>0.003620931168528007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01426822552002213</v>
+      </c>
+      <c r="F25">
+        <v>-0.005019542652572078</v>
+      </c>
+      <c r="G25">
+        <v>-0.01230178213791508</v>
+      </c>
+      <c r="H25">
+        <v>0.03759343071229754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006778962800890394</v>
+        <v>0.01471251490707839</v>
       </c>
       <c r="C26">
-        <v>-0.01580484434595563</v>
+        <v>0.02720067219360616</v>
       </c>
       <c r="D26">
-        <v>0.08189045122168599</v>
+        <v>0.06802465757861988</v>
       </c>
       <c r="E26">
-        <v>0.02129480719407147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04228594332206389</v>
+      </c>
+      <c r="F26">
+        <v>0.04481048311465721</v>
+      </c>
+      <c r="G26">
+        <v>-7.903601840553811e-05</v>
+      </c>
+      <c r="H26">
+        <v>0.09752341654493353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2559732387540236</v>
+        <v>0.3196020685294832</v>
       </c>
       <c r="C28">
-        <v>0.1997376941064216</v>
+        <v>-0.09269085246486294</v>
       </c>
       <c r="D28">
-        <v>0.01842984996320651</v>
+        <v>-0.01390720465313628</v>
       </c>
       <c r="E28">
-        <v>0.05969272482414309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05020896097967514</v>
+      </c>
+      <c r="F28">
+        <v>0.0457233842479001</v>
+      </c>
+      <c r="G28">
+        <v>0.04036953163773446</v>
+      </c>
+      <c r="H28">
+        <v>-0.008234905520373474</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001758180083365297</v>
+        <v>0.0006357874787074403</v>
       </c>
       <c r="C29">
-        <v>-0.02085383853853305</v>
+        <v>0.03652733690784786</v>
       </c>
       <c r="D29">
-        <v>0.09499219781255737</v>
+        <v>0.1047150703418212</v>
       </c>
       <c r="E29">
-        <v>0.01842354027106131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05701674640015432</v>
+      </c>
+      <c r="F29">
+        <v>0.04087965934852655</v>
+      </c>
+      <c r="G29">
+        <v>-0.002765784750514861</v>
+      </c>
+      <c r="H29">
+        <v>0.1313225962362177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02273880594756996</v>
+        <v>0.01330002262706008</v>
       </c>
       <c r="C30">
-        <v>-0.05889909355481217</v>
+        <v>0.08755241909455365</v>
       </c>
       <c r="D30">
-        <v>0.1628681710151524</v>
+        <v>0.1483308786931035</v>
       </c>
       <c r="E30">
-        <v>0.03028290746067735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05239963611657462</v>
+      </c>
+      <c r="F30">
+        <v>0.03055518436446424</v>
+      </c>
+      <c r="G30">
+        <v>0.03045608583330585</v>
+      </c>
+      <c r="H30">
+        <v>0.04508706416795397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03787021006842576</v>
+        <v>0.0103414545155992</v>
       </c>
       <c r="C31">
-        <v>-0.08495992182267266</v>
+        <v>0.0938428230491854</v>
       </c>
       <c r="D31">
-        <v>0.06773628609991381</v>
+        <v>0.04038500254517272</v>
       </c>
       <c r="E31">
-        <v>0.01401856093553505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01920087593051703</v>
+      </c>
+      <c r="F31">
+        <v>0.01569865751025718</v>
+      </c>
+      <c r="G31">
+        <v>0.0003489993713761549</v>
+      </c>
+      <c r="H31">
+        <v>0.04741936273783118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01665522269488706</v>
+        <v>0.009702275735374718</v>
       </c>
       <c r="C32">
-        <v>-0.03229706918024453</v>
+        <v>0.0488580467897038</v>
       </c>
       <c r="D32">
-        <v>0.09599162569455559</v>
+        <v>0.1089576630795463</v>
       </c>
       <c r="E32">
-        <v>0.06879432202841045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002712243440648414</v>
+      </c>
+      <c r="F32">
+        <v>0.05205456565437339</v>
+      </c>
+      <c r="G32">
+        <v>0.007455819707097053</v>
+      </c>
+      <c r="H32">
+        <v>0.05268443696281738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008538696175466945</v>
+        <v>0.006939390639217506</v>
       </c>
       <c r="C33">
-        <v>-0.04079618624800391</v>
+        <v>0.05864727585207648</v>
       </c>
       <c r="D33">
-        <v>0.1377274701499106</v>
+        <v>0.1215183791397452</v>
       </c>
       <c r="E33">
-        <v>0.04408317096624824</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02679234050671858</v>
+      </c>
+      <c r="F33">
+        <v>0.0289479442235971</v>
+      </c>
+      <c r="G33">
+        <v>0.0002437055046965262</v>
+      </c>
+      <c r="H33">
+        <v>0.06309598456233227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02121104049413267</v>
+        <v>0.007516685117382728</v>
       </c>
       <c r="C34">
-        <v>-0.05844601687221433</v>
+        <v>0.06177727777064839</v>
       </c>
       <c r="D34">
-        <v>0.04837346266163694</v>
+        <v>0.02857144217819561</v>
       </c>
       <c r="E34">
-        <v>-0.04370782652664429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02873125991475913</v>
+      </c>
+      <c r="F34">
+        <v>-0.03690889022240017</v>
+      </c>
+      <c r="G34">
+        <v>-0.01071633590655667</v>
+      </c>
+      <c r="H34">
+        <v>0.05754961846503587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002379995683710158</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01049974478067184</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03381189068530478</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003709622587701179</v>
+      </c>
+      <c r="F35">
+        <v>0.01886238132275159</v>
+      </c>
+      <c r="G35">
+        <v>-0.0005553610099587979</v>
+      </c>
+      <c r="H35">
+        <v>0.0463017172278496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00645664056673554</v>
+        <v>0.01196213241482996</v>
       </c>
       <c r="C36">
-        <v>-0.006256907660291894</v>
+        <v>0.02141247340193419</v>
       </c>
       <c r="D36">
-        <v>0.08492123941175164</v>
+        <v>0.07572302819779046</v>
       </c>
       <c r="E36">
-        <v>0.04614171755016062</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02736512421089758</v>
+      </c>
+      <c r="F36">
+        <v>0.05010128252132896</v>
+      </c>
+      <c r="G36">
+        <v>0.003178172746053776</v>
+      </c>
+      <c r="H36">
+        <v>0.06509909425526081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004247716018272343</v>
+        <v>0.01365626795470727</v>
       </c>
       <c r="C38">
-        <v>-0.006156609277592128</v>
+        <v>0.01991562775365826</v>
       </c>
       <c r="D38">
-        <v>0.08848107731108878</v>
+        <v>0.08587859299134756</v>
       </c>
       <c r="E38">
-        <v>0.01455023626242074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004233036580659815</v>
+      </c>
+      <c r="F38">
+        <v>0.003026758024436447</v>
+      </c>
+      <c r="G38">
+        <v>0.02445857892311824</v>
+      </c>
+      <c r="H38">
+        <v>0.06467427394769738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01527274500162371</v>
+        <v>0.002371265102865593</v>
       </c>
       <c r="C39">
-        <v>-0.05669043729730418</v>
+        <v>0.07625125320889653</v>
       </c>
       <c r="D39">
-        <v>0.111873166321027</v>
+        <v>0.0959949673869034</v>
       </c>
       <c r="E39">
-        <v>-0.01023453906516054</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05334259297021225</v>
+      </c>
+      <c r="F39">
+        <v>-0.00227121210815618</v>
+      </c>
+      <c r="G39">
+        <v>-0.008306416410874111</v>
+      </c>
+      <c r="H39">
+        <v>0.0955229162445826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01152808429880484</v>
+        <v>0.01290774460736677</v>
       </c>
       <c r="C40">
-        <v>-0.01723169826462684</v>
+        <v>0.03190634982348493</v>
       </c>
       <c r="D40">
-        <v>0.1259363371402771</v>
+        <v>0.1036962773636307</v>
       </c>
       <c r="E40">
-        <v>-0.01358063588923042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05064846436075087</v>
+      </c>
+      <c r="F40">
+        <v>-0.02174594986468658</v>
+      </c>
+      <c r="G40">
+        <v>0.04387083816672621</v>
+      </c>
+      <c r="H40">
+        <v>0.09093427213919121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009270168555486484</v>
+        <v>0.01611474739487084</v>
       </c>
       <c r="C41">
-        <v>-0.003571285242929546</v>
+        <v>0.01809445473543312</v>
       </c>
       <c r="D41">
-        <v>0.04582328574184655</v>
+        <v>0.04827992985591678</v>
       </c>
       <c r="E41">
-        <v>0.03365428867014954</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.006907566156899242</v>
+      </c>
+      <c r="F41">
+        <v>0.02580919136741813</v>
+      </c>
+      <c r="G41">
+        <v>0.005304572193550321</v>
+      </c>
+      <c r="H41">
+        <v>0.04598305455355831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001784730983887414</v>
+        <v>0.008989403195331742</v>
       </c>
       <c r="C43">
-        <v>-0.004540878895704988</v>
+        <v>0.01513286609515141</v>
       </c>
       <c r="D43">
-        <v>0.05377368942080803</v>
+        <v>0.05243014228524913</v>
       </c>
       <c r="E43">
-        <v>0.02290293430621041</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009415055296381271</v>
+      </c>
+      <c r="F43">
+        <v>0.02115281691535879</v>
+      </c>
+      <c r="G43">
+        <v>0.008598280489492391</v>
+      </c>
+      <c r="H43">
+        <v>0.05561221723597055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01574078595526707</v>
+        <v>0.01175470513822567</v>
       </c>
       <c r="C44">
-        <v>-0.0229234120098731</v>
+        <v>0.04691015595713876</v>
       </c>
       <c r="D44">
-        <v>0.1059249120308586</v>
+        <v>0.1095417731004696</v>
       </c>
       <c r="E44">
-        <v>0.05128223388639321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0379769358899513</v>
+      </c>
+      <c r="F44">
+        <v>0.03678552792044936</v>
+      </c>
+      <c r="G44">
+        <v>0.02787950938571879</v>
+      </c>
+      <c r="H44">
+        <v>0.05167483927909594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005030671709199879</v>
+        <v>0.0002006395785623594</v>
       </c>
       <c r="C46">
-        <v>-0.0290041710673299</v>
+        <v>0.04065265573904445</v>
       </c>
       <c r="D46">
-        <v>0.08776348490054207</v>
+        <v>0.07453962298663454</v>
       </c>
       <c r="E46">
-        <v>0.02002433338869905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04224944476307762</v>
+      </c>
+      <c r="F46">
+        <v>0.03504642005745441</v>
+      </c>
+      <c r="G46">
+        <v>0.01281424804436668</v>
+      </c>
+      <c r="H46">
+        <v>0.1315114964491769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08082866690199414</v>
+        <v>0.03502140865365472</v>
       </c>
       <c r="C47">
-        <v>-0.1076588249383501</v>
+        <v>0.1265028933349018</v>
       </c>
       <c r="D47">
-        <v>0.05829322176513636</v>
+        <v>0.02317430090194755</v>
       </c>
       <c r="E47">
-        <v>0.03186123720876303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008007428081736627</v>
+      </c>
+      <c r="F47">
+        <v>-0.003200073994226836</v>
+      </c>
+      <c r="G47">
+        <v>-0.04200156644562252</v>
+      </c>
+      <c r="H47">
+        <v>0.05340528060922807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007606230309362324</v>
+        <v>0.01366073304278477</v>
       </c>
       <c r="C48">
-        <v>-0.01556682185803997</v>
+        <v>0.03163763402343661</v>
       </c>
       <c r="D48">
-        <v>0.08861550705449608</v>
+        <v>0.08162159282337657</v>
       </c>
       <c r="E48">
-        <v>0.05924782395258419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02036765993833428</v>
+      </c>
+      <c r="F48">
+        <v>0.06076552769626699</v>
+      </c>
+      <c r="G48">
+        <v>0.008567737280909919</v>
+      </c>
+      <c r="H48">
+        <v>0.1045043275687761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0355571902737413</v>
+        <v>0.01496197920971151</v>
       </c>
       <c r="C50">
-        <v>-0.05968651388323602</v>
+        <v>0.07562733720026366</v>
       </c>
       <c r="D50">
-        <v>0.06104688336840847</v>
+        <v>0.04729701589615784</v>
       </c>
       <c r="E50">
-        <v>0.01064192216732342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01118719342426259</v>
+      </c>
+      <c r="F50">
+        <v>0.01057450916070445</v>
+      </c>
+      <c r="G50">
+        <v>0.01385216996454168</v>
+      </c>
+      <c r="H50">
+        <v>0.03704646528780261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002443719863521495</v>
+        <v>-0.0008826741507658788</v>
       </c>
       <c r="C51">
-        <v>-0.004366708476613964</v>
+        <v>0.01708481225001884</v>
       </c>
       <c r="D51">
-        <v>0.05544695458301971</v>
+        <v>0.05805698709309531</v>
       </c>
       <c r="E51">
-        <v>0.002064431850039835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0386518272053783</v>
+      </c>
+      <c r="F51">
+        <v>0.03973457328907504</v>
+      </c>
+      <c r="G51">
+        <v>0.01945933322076055</v>
+      </c>
+      <c r="H51">
+        <v>0.04835976684113261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1080019307204758</v>
+        <v>0.05488063106183607</v>
       </c>
       <c r="C53">
-        <v>-0.124656531441009</v>
+        <v>0.1559733162785039</v>
       </c>
       <c r="D53">
-        <v>0.009540980849667188</v>
+        <v>-0.02145286601225316</v>
       </c>
       <c r="E53">
-        <v>0.06097636624331506</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02962244071771197</v>
+      </c>
+      <c r="F53">
+        <v>0.04950088789931777</v>
+      </c>
+      <c r="G53">
+        <v>0.00210659079377772</v>
+      </c>
+      <c r="H53">
+        <v>0.005530136427828315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01037940984817601</v>
+        <v>0.009866467099105141</v>
       </c>
       <c r="C54">
-        <v>-0.02098076838050918</v>
+        <v>0.03743010378696104</v>
       </c>
       <c r="D54">
-        <v>0.08900869433891657</v>
+        <v>0.07675438094106619</v>
       </c>
       <c r="E54">
-        <v>0.007727302889259093</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01507164605972323</v>
+      </c>
+      <c r="F54">
+        <v>0.004655496334344479</v>
+      </c>
+      <c r="G54">
+        <v>0.02497438775234474</v>
+      </c>
+      <c r="H54">
+        <v>0.07944320630308457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.095161510155859</v>
+        <v>0.04191684658079368</v>
       </c>
       <c r="C55">
-        <v>-0.1058078225885452</v>
+        <v>0.1309009570602064</v>
       </c>
       <c r="D55">
-        <v>0.006044261547599463</v>
+        <v>-0.0310344311032095</v>
       </c>
       <c r="E55">
-        <v>0.01198298016391724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004303785226313834</v>
+      </c>
+      <c r="F55">
+        <v>0.01457500508359814</v>
+      </c>
+      <c r="G55">
+        <v>0.005480365966295686</v>
+      </c>
+      <c r="H55">
+        <v>0.01597235560915805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1330488915652677</v>
+        <v>0.05674018688056533</v>
       </c>
       <c r="C56">
-        <v>-0.142488038867692</v>
+        <v>0.18839137742762</v>
       </c>
       <c r="D56">
-        <v>0.001764846715017702</v>
+        <v>-0.03264949505957394</v>
       </c>
       <c r="E56">
-        <v>0.01278773387390186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03057280497961305</v>
+      </c>
+      <c r="F56">
+        <v>0.01670122312611837</v>
+      </c>
+      <c r="G56">
+        <v>0.05516156832672828</v>
+      </c>
+      <c r="H56">
+        <v>0.01026575065278347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.009717848265355926</v>
+        <v>0.006853442924290186</v>
       </c>
       <c r="C58">
-        <v>-0.01242128005127127</v>
+        <v>0.05413468099610322</v>
       </c>
       <c r="D58">
-        <v>0.2149999308909924</v>
+        <v>0.2711102974426329</v>
       </c>
       <c r="E58">
-        <v>0.08375391676781092</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01371833952254462</v>
+      </c>
+      <c r="F58">
+        <v>0.1043867699276707</v>
+      </c>
+      <c r="G58">
+        <v>0.1318707489256842</v>
+      </c>
+      <c r="H58">
+        <v>-0.09306528034647274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1801692978015383</v>
+        <v>0.2530200454842046</v>
       </c>
       <c r="C59">
-        <v>0.1484573760669476</v>
+        <v>-0.06326032240898473</v>
       </c>
       <c r="D59">
-        <v>0.04599870538250133</v>
+        <v>0.05648424709780732</v>
       </c>
       <c r="E59">
-        <v>0.03720439177956616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02054560821358442</v>
+      </c>
+      <c r="F59">
+        <v>0.02389991435353268</v>
+      </c>
+      <c r="G59">
+        <v>0.01190821515314859</v>
+      </c>
+      <c r="H59">
+        <v>-0.003693913595714392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1836013968191851</v>
+        <v>0.1491461691462121</v>
       </c>
       <c r="C60">
-        <v>-0.1012406385882668</v>
+        <v>0.1717113329214483</v>
       </c>
       <c r="D60">
-        <v>0.2077082552086204</v>
+        <v>0.0866835717151152</v>
       </c>
       <c r="E60">
-        <v>-0.1650370359138986</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1655504108977275</v>
+      </c>
+      <c r="F60">
+        <v>-0.2260193567886572</v>
+      </c>
+      <c r="G60">
+        <v>-0.2288775199365978</v>
+      </c>
+      <c r="H60">
+        <v>-0.2197383439318376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02472359209796089</v>
+        <v>0.01095843182198326</v>
       </c>
       <c r="C61">
-        <v>-0.05341009710150311</v>
+        <v>0.07454269145374795</v>
       </c>
       <c r="D61">
-        <v>0.09878953032969587</v>
+        <v>0.07955759868360456</v>
       </c>
       <c r="E61">
-        <v>-0.002540903131180558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03735687317309051</v>
+      </c>
+      <c r="F61">
+        <v>-0.01157158977626172</v>
+      </c>
+      <c r="G61">
+        <v>-0.02771701163579085</v>
+      </c>
+      <c r="H61">
+        <v>0.08856887014054868</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006712898548496164</v>
+        <v>0.008255691508443463</v>
       </c>
       <c r="C63">
-        <v>-0.02536934015226299</v>
+        <v>0.03685713549244819</v>
       </c>
       <c r="D63">
-        <v>0.09416164789912343</v>
+        <v>0.06886909254978192</v>
       </c>
       <c r="E63">
-        <v>0.01741083020489381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0570880709897601</v>
+      </c>
+      <c r="F63">
+        <v>0.0286850418650961</v>
+      </c>
+      <c r="G63">
+        <v>0.007724037472203428</v>
+      </c>
+      <c r="H63">
+        <v>0.06583484081085458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05622679180596143</v>
+        <v>0.01675386009506172</v>
       </c>
       <c r="C64">
-        <v>-0.08309737437261812</v>
+        <v>0.1048865214521669</v>
       </c>
       <c r="D64">
-        <v>0.03264791303787249</v>
+        <v>0.0165480285422275</v>
       </c>
       <c r="E64">
-        <v>0.01730479614753802</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02453772966992771</v>
+      </c>
+      <c r="F64">
+        <v>0.01930279150407178</v>
+      </c>
+      <c r="G64">
+        <v>-0.04622045190776671</v>
+      </c>
+      <c r="H64">
+        <v>0.08631670128100206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02410027066672354</v>
+        <v>0.02112311515359599</v>
       </c>
       <c r="C65">
-        <v>-0.01553721674029858</v>
+        <v>0.04347840781722088</v>
       </c>
       <c r="D65">
-        <v>0.1153153276624877</v>
+        <v>0.1150177858654022</v>
       </c>
       <c r="E65">
-        <v>0.008167395786994</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04304210027383201</v>
+      </c>
+      <c r="F65">
+        <v>-0.00523677145657413</v>
+      </c>
+      <c r="G65">
+        <v>-0.02498568107822605</v>
+      </c>
+      <c r="H65">
+        <v>0.02440394657334538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01869627449700683</v>
+        <v>-0.000422055684031268</v>
       </c>
       <c r="C66">
-        <v>-0.06476065575728926</v>
+        <v>0.09454828668168319</v>
       </c>
       <c r="D66">
-        <v>0.1191890494878918</v>
+        <v>0.1214440407583433</v>
       </c>
       <c r="E66">
-        <v>-0.01320379168456879</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04133182235258086</v>
+      </c>
+      <c r="F66">
+        <v>-0.008813819707045121</v>
+      </c>
+      <c r="G66">
+        <v>0.01294458496713526</v>
+      </c>
+      <c r="H66">
+        <v>0.05876427541777746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02353092653216866</v>
+        <v>0.02369925527077666</v>
       </c>
       <c r="C67">
-        <v>-0.01904673252665022</v>
+        <v>0.03220981323632341</v>
       </c>
       <c r="D67">
-        <v>0.04527040560727313</v>
+        <v>0.04013608374671054</v>
       </c>
       <c r="E67">
-        <v>-0.01251428496935945</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01053435364790952</v>
+      </c>
+      <c r="F67">
+        <v>-0.02506226523743954</v>
+      </c>
+      <c r="G67">
+        <v>0.008416437428962626</v>
+      </c>
+      <c r="H67">
+        <v>0.06731446907777328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2031398387307394</v>
+        <v>0.2732310138887515</v>
       </c>
       <c r="C68">
-        <v>0.1573925500865835</v>
+        <v>-0.06872287471543562</v>
       </c>
       <c r="D68">
-        <v>0.02963619319437957</v>
+        <v>0.02379203759001158</v>
       </c>
       <c r="E68">
-        <v>0.007308338573606961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005243328602695536</v>
+      </c>
+      <c r="F68">
+        <v>0.02465975627086687</v>
+      </c>
+      <c r="G68">
+        <v>0.06931140692991496</v>
+      </c>
+      <c r="H68">
+        <v>-0.04973339557687633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05637538804523454</v>
+        <v>0.01893659743553831</v>
       </c>
       <c r="C69">
-        <v>-0.1149705871395827</v>
+        <v>0.1183918606104122</v>
       </c>
       <c r="D69">
-        <v>0.07790557309072552</v>
+        <v>0.03136098611857096</v>
       </c>
       <c r="E69">
-        <v>0.01879339217577621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007327411633303859</v>
+      </c>
+      <c r="F69">
+        <v>-0.00636597084301116</v>
+      </c>
+      <c r="G69">
+        <v>-0.02270229268427716</v>
+      </c>
+      <c r="H69">
+        <v>0.04112742057991369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2127584764437487</v>
+        <v>0.2749649199864951</v>
       </c>
       <c r="C71">
-        <v>0.1807683229469116</v>
+        <v>-0.08128369808274394</v>
       </c>
       <c r="D71">
-        <v>0.01891374981059432</v>
+        <v>0.01589051572697542</v>
       </c>
       <c r="E71">
-        <v>0.01288072704404363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0008728614239870618</v>
+      </c>
+      <c r="F71">
+        <v>0.0201512241542425</v>
+      </c>
+      <c r="G71">
+        <v>0.03318833903284561</v>
+      </c>
+      <c r="H71">
+        <v>0.02370371966195866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1039652041410846</v>
+        <v>0.05594175254014578</v>
       </c>
       <c r="C72">
-        <v>-0.07560730183408994</v>
+        <v>0.1250860249072103</v>
       </c>
       <c r="D72">
-        <v>0.1106460698122573</v>
+        <v>0.05710887894644943</v>
       </c>
       <c r="E72">
-        <v>-0.04626004583806918</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06972340677003563</v>
+      </c>
+      <c r="F72">
+        <v>-0.02867988968607209</v>
+      </c>
+      <c r="G72">
+        <v>-0.03713227830755498</v>
+      </c>
+      <c r="H72">
+        <v>0.05161983683129776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1717525824316777</v>
+        <v>0.1419600264605285</v>
       </c>
       <c r="C73">
-        <v>-0.06451988339105552</v>
+        <v>0.1448013063231604</v>
       </c>
       <c r="D73">
-        <v>0.2803948462572881</v>
+        <v>0.0982536684629251</v>
       </c>
       <c r="E73">
-        <v>-0.2492302501570068</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2916186021516374</v>
+      </c>
+      <c r="F73">
+        <v>-0.3203868887041566</v>
+      </c>
+      <c r="G73">
+        <v>-0.4122863697553385</v>
+      </c>
+      <c r="H73">
+        <v>-0.1532585280410325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1071512141878821</v>
+        <v>0.04963983693761181</v>
       </c>
       <c r="C74">
-        <v>-0.1152912953134885</v>
+        <v>0.1452714108055387</v>
       </c>
       <c r="D74">
-        <v>-0.01764854828294503</v>
+        <v>-0.04195119159269468</v>
       </c>
       <c r="E74">
-        <v>0.03964093726769608</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01141480904716562</v>
+      </c>
+      <c r="F74">
+        <v>0.03664659924730572</v>
+      </c>
+      <c r="G74">
+        <v>-0.007874582785602739</v>
+      </c>
+      <c r="H74">
+        <v>-0.01207089413528197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2343564823910755</v>
+        <v>0.1088783494013604</v>
       </c>
       <c r="C75">
-        <v>-0.1990912693506166</v>
+        <v>0.2681001106598371</v>
       </c>
       <c r="D75">
-        <v>-0.101379881142407</v>
+        <v>-0.1378403429700139</v>
       </c>
       <c r="E75">
-        <v>-0.02780090403894833</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08820900239850112</v>
+      </c>
+      <c r="F75">
+        <v>-0.03058682287987301</v>
+      </c>
+      <c r="G75">
+        <v>0.09218673271174761</v>
+      </c>
+      <c r="H75">
+        <v>0.01814074453452046</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1397952164052033</v>
+        <v>0.06205681762848692</v>
       </c>
       <c r="C76">
-        <v>-0.1382068005784766</v>
+        <v>0.1815549907799158</v>
       </c>
       <c r="D76">
-        <v>0.01686852421155331</v>
+        <v>-0.03730334428889525</v>
       </c>
       <c r="E76">
-        <v>0.01344660203103959</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02220550394873685</v>
+      </c>
+      <c r="F76">
+        <v>0.003713502700253844</v>
+      </c>
+      <c r="G76">
+        <v>0.03371671955766099</v>
+      </c>
+      <c r="H76">
+        <v>0.03472187513355551</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02078621096329099</v>
+        <v>0.001849217414507067</v>
       </c>
       <c r="C77">
-        <v>-0.067257092926837</v>
+        <v>0.1058376584988293</v>
       </c>
       <c r="D77">
-        <v>-0.004982705578131436</v>
+        <v>0.313441555226236</v>
       </c>
       <c r="E77">
-        <v>0.2414575062213257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8416523845290432</v>
+      </c>
+      <c r="F77">
+        <v>-0.2275052523974157</v>
+      </c>
+      <c r="G77">
+        <v>-0.2091699598124864</v>
+      </c>
+      <c r="H77">
+        <v>-0.1450116545176361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02590950182235516</v>
+        <v>0.01653830053284792</v>
       </c>
       <c r="C78">
-        <v>-0.06892600475383473</v>
+        <v>0.09113768224525902</v>
       </c>
       <c r="D78">
-        <v>0.1517628418212961</v>
+        <v>0.1187366497741971</v>
       </c>
       <c r="E78">
-        <v>0.04720828415961014</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06768002565768211</v>
+      </c>
+      <c r="F78">
+        <v>0.04269632724018352</v>
+      </c>
+      <c r="G78">
+        <v>0.03130361388308875</v>
+      </c>
+      <c r="H78">
+        <v>0.02498666883174253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09642229709621492</v>
+        <v>0.03507274417051021</v>
       </c>
       <c r="C79">
-        <v>-0.1749342325632017</v>
+        <v>0.1927201071875617</v>
       </c>
       <c r="D79">
-        <v>-0.112473429734048</v>
+        <v>-0.07293311968619104</v>
       </c>
       <c r="E79">
-        <v>0.7870739629502166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05093542778700734</v>
+      </c>
+      <c r="F79">
+        <v>0.7713141460190431</v>
+      </c>
+      <c r="G79">
+        <v>-0.3993414315107268</v>
+      </c>
+      <c r="H79">
+        <v>-0.3191931454985818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.005433992238191007</v>
+        <v>0.005480662372541428</v>
       </c>
       <c r="C80">
-        <v>-0.04649621046050982</v>
+        <v>0.04693029520238335</v>
       </c>
       <c r="D80">
-        <v>0.04918663832715112</v>
+        <v>0.04022723642141988</v>
       </c>
       <c r="E80">
-        <v>-0.006946663217928423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04247180725527542</v>
+      </c>
+      <c r="F80">
+        <v>0.004953647491940104</v>
+      </c>
+      <c r="G80">
+        <v>0.01586013293921038</v>
+      </c>
+      <c r="H80">
+        <v>0.02796544262013888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1199803516318844</v>
+        <v>0.04384005889323664</v>
       </c>
       <c r="C81">
-        <v>-0.1348181260594644</v>
+        <v>0.1691387829543585</v>
       </c>
       <c r="D81">
-        <v>-0.06916238213592248</v>
+        <v>-0.07584739051037942</v>
       </c>
       <c r="E81">
-        <v>0.05981370493711191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04827983123122136</v>
+      </c>
+      <c r="F81">
+        <v>0.06577609060436017</v>
+      </c>
+      <c r="G81">
+        <v>0.04286073829591426</v>
+      </c>
+      <c r="H81">
+        <v>0.08337422684983982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2529669648184317</v>
+        <v>0.09112270696604644</v>
       </c>
       <c r="C82">
-        <v>-0.2977383255648885</v>
+        <v>0.3221719167561113</v>
       </c>
       <c r="D82">
-        <v>-0.1950993322672016</v>
+        <v>-0.238194860406418</v>
       </c>
       <c r="E82">
-        <v>-0.1418173732452382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05761888815707459</v>
+      </c>
+      <c r="F82">
+        <v>-0.1061757636270005</v>
+      </c>
+      <c r="G82">
+        <v>0.09065299094640433</v>
+      </c>
+      <c r="H82">
+        <v>0.1163105255684687</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.007144707852957048</v>
+        <v>-0.01299191561587697</v>
       </c>
       <c r="C83">
-        <v>-0.05095958330527446</v>
+        <v>0.02579643040302959</v>
       </c>
       <c r="D83">
-        <v>0.0001462077236305034</v>
+        <v>0.02717679042785878</v>
       </c>
       <c r="E83">
-        <v>0.06130403895266309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07864692977584664</v>
+      </c>
+      <c r="F83">
+        <v>0.07238519659448957</v>
+      </c>
+      <c r="G83">
+        <v>0.03639210835817491</v>
+      </c>
+      <c r="H83">
+        <v>0.09610332696023001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001401687620573054</v>
+        <v>-0.0004045925416478308</v>
       </c>
       <c r="C84">
-        <v>0.0001634985849409208</v>
+        <v>0.01941989894270761</v>
       </c>
       <c r="D84">
-        <v>0.008421027998484537</v>
+        <v>0.04794860911802265</v>
       </c>
       <c r="E84">
-        <v>-0.002482989675880575</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.003318836324904651</v>
+      </c>
+      <c r="F84">
+        <v>0.02801780204478083</v>
+      </c>
+      <c r="G84">
+        <v>0.0497581707464988</v>
+      </c>
+      <c r="H84">
+        <v>0.01390837623549059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1411553794187334</v>
+        <v>0.05782068608435286</v>
       </c>
       <c r="C85">
-        <v>-0.1387553472284105</v>
+        <v>0.1829399771578631</v>
       </c>
       <c r="D85">
-        <v>-0.03852701690795324</v>
+        <v>-0.09148897157757832</v>
       </c>
       <c r="E85">
-        <v>0.02406790041049656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001940036265063681</v>
+      </c>
+      <c r="F85">
+        <v>0.07464712762251768</v>
+      </c>
+      <c r="G85">
+        <v>0.01903465110997632</v>
+      </c>
+      <c r="H85">
+        <v>0.0003396792982795677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01339636953964532</v>
+        <v>0.01371662609681323</v>
       </c>
       <c r="C86">
-        <v>-0.01443299268775917</v>
+        <v>0.03219073127925125</v>
       </c>
       <c r="D86">
-        <v>0.08125999206775338</v>
+        <v>0.1011697420505992</v>
       </c>
       <c r="E86">
-        <v>0.05370532133356313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02203912819449102</v>
+      </c>
+      <c r="F86">
+        <v>-0.001718764699063196</v>
+      </c>
+      <c r="G86">
+        <v>-0.01765209536259995</v>
+      </c>
+      <c r="H86">
+        <v>0.02427929455599681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01944995354108574</v>
+        <v>0.01219377811597387</v>
       </c>
       <c r="C87">
-        <v>-0.02440012589544749</v>
+        <v>0.05849137463863439</v>
       </c>
       <c r="D87">
-        <v>0.134827518590271</v>
+        <v>0.1449993024291975</v>
       </c>
       <c r="E87">
-        <v>0.05729883110656332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01251476140952615</v>
+      </c>
+      <c r="F87">
+        <v>0.04185425206097294</v>
+      </c>
+      <c r="G87">
+        <v>0.05378188958581128</v>
+      </c>
+      <c r="H87">
+        <v>0.0319861774952435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05269200413277832</v>
+        <v>0.03448372923908414</v>
       </c>
       <c r="C88">
-        <v>-0.04480733588790385</v>
+        <v>0.06762476366376648</v>
       </c>
       <c r="D88">
-        <v>0.02622994352375196</v>
+        <v>0.01304896416560363</v>
       </c>
       <c r="E88">
-        <v>0.03059079768356667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02751975181456007</v>
+      </c>
+      <c r="F88">
+        <v>0.01956489910912767</v>
+      </c>
+      <c r="G88">
+        <v>-0.01118287897779616</v>
+      </c>
+      <c r="H88">
+        <v>0.01825895931262488</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3217119074574891</v>
+        <v>0.4066486835377425</v>
       </c>
       <c r="C89">
-        <v>0.3279896011939001</v>
+        <v>-0.1558563995488529</v>
       </c>
       <c r="D89">
-        <v>0.01051537279382095</v>
+        <v>0.02817944506445087</v>
       </c>
       <c r="E89">
-        <v>0.1052723247700891</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05457764735491413</v>
+      </c>
+      <c r="F89">
+        <v>0.0709524509929105</v>
+      </c>
+      <c r="G89">
+        <v>0.04485670839250828</v>
+      </c>
+      <c r="H89">
+        <v>0.09573571955197503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2543585535382624</v>
+        <v>0.3191546357116533</v>
       </c>
       <c r="C90">
-        <v>0.2388685747542665</v>
+        <v>-0.103558866237531</v>
       </c>
       <c r="D90">
-        <v>0.04258721908192919</v>
+        <v>0.03617502681262193</v>
       </c>
       <c r="E90">
-        <v>-0.008040896997758271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01088245649404077</v>
+      </c>
+      <c r="F90">
+        <v>-0.007922762703645949</v>
+      </c>
+      <c r="G90">
+        <v>0.05713917288254224</v>
+      </c>
+      <c r="H90">
+        <v>0.001328404138880014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.155961397847006</v>
+        <v>0.06802408709783644</v>
       </c>
       <c r="C91">
-        <v>-0.1872223396545237</v>
+        <v>0.2092942078656096</v>
       </c>
       <c r="D91">
-        <v>-0.09515646212883098</v>
+        <v>-0.109185203503777</v>
       </c>
       <c r="E91">
-        <v>0.08996603373498747</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0584581492540371</v>
+      </c>
+      <c r="F91">
+        <v>0.07329392226912686</v>
+      </c>
+      <c r="G91">
+        <v>0.002770131225566852</v>
+      </c>
+      <c r="H91">
+        <v>0.005739800036811613</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.241259853259293</v>
+        <v>0.338405675444857</v>
       </c>
       <c r="C92">
-        <v>0.260891471492282</v>
+        <v>-0.1411865872604964</v>
       </c>
       <c r="D92">
-        <v>-0.05225046569387428</v>
+        <v>0.002374438132752111</v>
       </c>
       <c r="E92">
-        <v>0.04723751221493171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06402488798118065</v>
+      </c>
+      <c r="F92">
+        <v>0.03019117285001035</v>
+      </c>
+      <c r="G92">
+        <v>0.02885477153893694</v>
+      </c>
+      <c r="H92">
+        <v>0.01874673706126309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2802225806895781</v>
+        <v>0.3354223055138244</v>
       </c>
       <c r="C93">
-        <v>0.2514827567485094</v>
+        <v>-0.1152373424299509</v>
       </c>
       <c r="D93">
-        <v>0.01612359318673866</v>
+        <v>-0.01789890702478008</v>
       </c>
       <c r="E93">
-        <v>0.001319823631801851</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02563754314004412</v>
+      </c>
+      <c r="F93">
+        <v>0.00895091613233163</v>
+      </c>
+      <c r="G93">
+        <v>-0.01899427853492353</v>
+      </c>
+      <c r="H93">
+        <v>-0.0008267256538425713</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2960199076987799</v>
+        <v>0.1271343271954414</v>
       </c>
       <c r="C94">
-        <v>-0.2736288603692991</v>
+        <v>0.3519011602148246</v>
       </c>
       <c r="D94">
-        <v>-0.3487239322257806</v>
+        <v>-0.3623390156592192</v>
       </c>
       <c r="E94">
-        <v>-0.2198271063549964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06204121688590192</v>
+      </c>
+      <c r="F94">
+        <v>-0.1041631990306858</v>
+      </c>
+      <c r="G94">
+        <v>0.3260143353909482</v>
+      </c>
+      <c r="H94">
+        <v>-0.05324089511161589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0143919390040088</v>
+        <v>0.01845387628717062</v>
       </c>
       <c r="C95">
-        <v>-0.03769424440730334</v>
+        <v>0.06355767932995322</v>
       </c>
       <c r="D95">
-        <v>0.0164712954247517</v>
+        <v>0.1099707201015791</v>
       </c>
       <c r="E95">
-        <v>0.09912101107619913</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1560179731538946</v>
+      </c>
+      <c r="F95">
+        <v>-0.01417527657087236</v>
+      </c>
+      <c r="G95">
+        <v>-0.07537090634112385</v>
+      </c>
+      <c r="H95">
+        <v>0.3440215570438929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001367977310368807</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0008168388985441749</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0009641605360487324</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003705910304435541</v>
+      </c>
+      <c r="F97">
+        <v>0.0004524649143016622</v>
+      </c>
+      <c r="G97">
+        <v>0.0002909884276272161</v>
+      </c>
+      <c r="H97">
+        <v>0.003563133497449276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1437087744604235</v>
+        <v>0.1147962470622915</v>
       </c>
       <c r="C98">
-        <v>-0.08712029775848448</v>
+        <v>0.151479190267728</v>
       </c>
       <c r="D98">
-        <v>0.1609895032107374</v>
+        <v>0.06540826340908706</v>
       </c>
       <c r="E98">
-        <v>-0.1979658132563482</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2015118704273283</v>
+      </c>
+      <c r="F98">
+        <v>-0.2482578479132942</v>
+      </c>
+      <c r="G98">
+        <v>-0.2820744258333528</v>
+      </c>
+      <c r="H98">
+        <v>-0.1707582938908597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001041463526908938</v>
+        <v>0.001126312292035424</v>
       </c>
       <c r="C101">
-        <v>-0.02012400968353064</v>
+        <v>0.03578407432359919</v>
       </c>
       <c r="D101">
-        <v>0.09475843512816333</v>
+        <v>0.1039056177479267</v>
       </c>
       <c r="E101">
-        <v>0.019589781290206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05634454281107944</v>
+      </c>
+      <c r="F101">
+        <v>0.04110405669065284</v>
+      </c>
+      <c r="G101">
+        <v>-0.001962822809934743</v>
+      </c>
+      <c r="H101">
+        <v>0.1316929698527261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1059435613145515</v>
+        <v>0.02858959314427476</v>
       </c>
       <c r="C102">
-        <v>-0.1585394618973479</v>
+        <v>0.1492457274824799</v>
       </c>
       <c r="D102">
-        <v>-0.06135317268810181</v>
+        <v>-0.09734471070531295</v>
       </c>
       <c r="E102">
-        <v>-0.05088903789159708</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03568684306175973</v>
+      </c>
+      <c r="F102">
+        <v>-0.06327548237694799</v>
+      </c>
+      <c r="G102">
+        <v>-0.007990082718441581</v>
+      </c>
+      <c r="H102">
+        <v>0.05193175917990358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
